--- a/public/documentos/plantilla_documento.xlsx
+++ b/public/documentos/plantilla_documento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\desarrollo\public\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE392D-5136-408C-95FA-99B3D763AC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA4F84-36BA-4435-9E98-65342BC457A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{864B328B-6E13-4141-A69F-4D95903D2F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>valor_producto</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>margen</t>
+  </si>
+  <si>
+    <t>nombre_proveedor</t>
   </si>
 </sst>
 </file>
@@ -126,9 +129,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D179583-4827-441A-B862-12DC4FFDABBE}" name="Tabla1" displayName="Tabla1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{06BD64EC-342A-4FDB-893B-2057C080607F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D179583-4827-441A-B862-12DC4FFDABBE}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{06BD64EC-342A-4FDB-893B-2057C080607F}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CC24F511-9C99-4FBA-9F1E-1B43FD35C2DD}" name="valor_producto" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{38D8018C-CB44-43A6-9EC8-7B5991B827ED}" name="descripcion_producto"/>
     <tableColumn id="3" xr3:uid="{8A0A0FE8-CD95-4E8E-96DB-21B20003974E}" name="nombre_producto"/>
@@ -137,6 +140,7 @@
     <tableColumn id="7" xr3:uid="{A5228463-515E-4746-89DA-61D74B8E50E8}" name="stock"/>
     <tableColumn id="8" xr3:uid="{CE1D4515-9ABA-4A9E-A7B9-EF45A5698951}" name="costo"/>
     <tableColumn id="9" xr3:uid="{B22D76CD-6597-4735-AA73-6401D2A565F8}" name="margen"/>
+    <tableColumn id="4" xr3:uid="{9990E343-7EBE-4889-9ACB-B2B04E803890}" name="nombre_proveedor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E24082-6067-4761-9EF3-BBEA5EB05779}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +458,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +483,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
   </sheetData>

--- a/public/documentos/plantilla_documento.xlsx
+++ b/public/documentos/plantilla_documento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\desarrollo\public\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA4F84-36BA-4435-9E98-65342BC457A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5E12C-233D-4DCB-8226-2AAE264709D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{864B328B-6E13-4141-A69F-4D95903D2F75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{864B328B-6E13-4141-A69F-4D95903D2F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,33 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>valor_producto</t>
-  </si>
-  <si>
-    <t>descripcion_producto</t>
-  </si>
-  <si>
-    <t>nombre_producto</t>
-  </si>
-  <si>
-    <t>numero_fabricacion</t>
-  </si>
-  <si>
-    <t>numero_interno</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>costo</t>
-  </si>
-  <si>
-    <t>margen</t>
-  </si>
-  <si>
-    <t>nombre_proveedor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Margen</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Numero Interno</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
   </si>
 </sst>
 </file>
@@ -104,16 +98,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,20 +151,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D179583-4827-441A-B862-12DC4FFDABBE}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{06BD64EC-342A-4FDB-893B-2057C080607F}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CC24F511-9C99-4FBA-9F1E-1B43FD35C2DD}" name="valor_producto" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{38D8018C-CB44-43A6-9EC8-7B5991B827ED}" name="descripcion_producto"/>
-    <tableColumn id="3" xr3:uid="{8A0A0FE8-CD95-4E8E-96DB-21B20003974E}" name="nombre_producto"/>
-    <tableColumn id="5" xr3:uid="{C554DDAA-DE02-4DD7-87A1-A0BD3D6636CD}" name="numero_fabricacion"/>
-    <tableColumn id="6" xr3:uid="{8AFD0044-4319-4EE9-8668-8F362A35CE7A}" name="numero_interno"/>
-    <tableColumn id="7" xr3:uid="{A5228463-515E-4746-89DA-61D74B8E50E8}" name="stock"/>
-    <tableColumn id="8" xr3:uid="{CE1D4515-9ABA-4A9E-A7B9-EF45A5698951}" name="costo"/>
-    <tableColumn id="9" xr3:uid="{B22D76CD-6597-4735-AA73-6401D2A565F8}" name="margen"/>
-    <tableColumn id="4" xr3:uid="{9990E343-7EBE-4889-9ACB-B2B04E803890}" name="nombre_proveedor"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D179583-4827-441A-B862-12DC4FFDABBE}" name="Tabla1" displayName="Tabla1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G3" xr:uid="{3E904DC5-8F0D-4A45-A69B-96AB8A8CCA07}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CC24F511-9C99-4FBA-9F1E-1B43FD35C2DD}" name="Margen" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{38D8018C-CB44-43A6-9EC8-7B5991B827ED}" name="Precio" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8A0A0FE8-CD95-4E8E-96DB-21B20003974E}" name="Costo" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C554DDAA-DE02-4DD7-87A1-A0BD3D6636CD}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8AFD0044-4319-4EE9-8668-8F362A35CE7A}" name="Descripcion" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{A5228463-515E-4746-89DA-61D74B8E50E8}" name="Numero Interno" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{CE1D4515-9ABA-4A9E-A7B9-EF45A5698951}" name="Proveedor" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -443,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E24082-6067-4761-9EF3-BBEA5EB05779}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,38 +476,51 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
   </sheetData>
